--- a/QHKH/BIEUMAUEXCEL/BM02CH.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM02CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1A2EC4-7205-4284-B309-B7978F81D500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231CEABA-94DA-4551-AC9A-0C8B3B96469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1305" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>PNK</t>
+  </si>
+  <si>
+    <t>BM02/CH</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -587,6 +590,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,7 +624,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -938,7 +944,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,63 +953,65 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="22" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="9" t="s">
         <v>80</v>
       </c>
